--- a/biology/Botanique/Square_Saint-Médard/Square_Saint-Médard.xlsx
+++ b/biology/Botanique/Square_Saint-Médard/Square_Saint-Médard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Saint-M%C3%A9dard</t>
+          <t>Square_Saint-Médard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Saint-Médard est un square du 5e arrondissement de Paris .
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Saint-M%C3%A9dard</t>
+          <t>Square_Saint-Médard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé à l'angle de la rue Censier et de l'extrémité de la rue Mouffetard le long de l'église Saint-Médard, le site est accessible par le 32, rue Censier.
 Il est desservi par la ligne 7 à la station Censier - Daubenton.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Saint-M%C3%A9dard</t>
+          <t>Square_Saint-Médard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emplacement du grand cimetière de l’église Saint-Médard entre 1512 et 1798[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emplacement du grand cimetière de l’église Saint-Médard entre 1512 et 1798.
 Le square a été créé en 1875.
 Auparavant se trouvait à son emplacement la fontaine Censier et des habitations, détruites en 1868-1869.
 </t>
